--- a/extracted_excel/Tharaka_gendered_enterprise.xlsx
+++ b/extracted_excel/Tharaka_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Tharaka</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -157,7 +151,7 @@
     <t>Factors to success Replicability Necessary condition Adaptation to climate change YES Suitable climatic conditions Short maturity periods Enabling environment(interventions, sensitizations)</t>
   </si>
   <si>
-    <t>Gender Enterprise Tasks Reason Women Maize Planting Weeding Harvesting Marketing Culture norms Beans Planting Weeding Harvesting Marketing Culture norms Banana Harvesting Marketing Root crops (Yams, Cassava, Sweet potatoes, Arrow roots) Planting Weeding Harvesting Marketing Culture norms Men Livestock (Dairy, Beef) Grazing Marketing Cash crops Coffee Land preparation Planting Purchase of inputs Spraying Pruning Attending meetings and trainings Men –labor intensive, skills and experience required, value of the crop Tea Land preparation Purchase of inputs Training of the crop Pruning Macadamia Enterprise Men Women Youth Reasons why Coffee Land preparation Planting Purchase of inputs Spraying Weeding Pruning Selecting &amp;Grading Attending meetings and trainings Manuring Weeding Pruning Picking Selecting &amp;Grading Land preparation Picking Transporting Selecting &amp; Grading Men –labour intensive ,skills and experience required, value of the crop Women – less skill and labour ,culture , Youth –Level of income ,quick money ,less time required Tea Land preparation Purchase of inputs Training of the crop Pruning Picking Weeding Selecting and grading Planting Land preparation Picking Transporting Selecting and grading Pruning Planting Men –labour intensive ,skills and experience required, value of the crop Women – less skill and labour ,culture , Youth –Level of income ,quick money ,less time required Muguka Land preparation Planting Purchase of inputs Training of the crop Spraying Picking Grading /sorting Irrigating Marketing Picking Weeding Irrigating Marketing Land preparation Picking Transporting Irrigating Marketing Men –labour intensive ,skills and experience required, value of the crop Women – less skill and labour ,culture , Youth –Level of income ,quick money ,less time required Avocado Land preparation Planting Purchase of inputs Pruning Picking Weeding Sorting and grading Marketing Picking Pruning Transporting Sorting and grading Men –labour intensive ,skills and experience ,required, value of the crop ,risk involved Women – less skill and labour ,culture , Youth –Level of income ,quick money ,less time required Macadamia Land preparation Purchase of inputs Planting Pruning Harvesting De-husking Pest and disease control Weeding Sorting and grading Harvesting Transporting Sorting and grading De-husking Men –labour intensive ,skills and experience required, value of the crop,risk involved Women – less skill and labour ,culture , Youth –Level of income ,quick money ,less time required Dairy cow Purchase of animal Dairy unit construction Purchase of feeds and other inputs Milking Feeding Milk marketing Transportation Feeding Cleaning the unit Men –labour intensive ,skills and experience required, ownership Women – less skill and labour ,culture , Youth –,quick money ,less time required Mangoes Land preparation Planting Purchase of inputs Pruning Picking Weeding Sorting and grading Marketing Value addition Picking Pruning Transporting Sorting and grading</t>
+    <t>Gender Enterprise Tasks Reason Women Maize Planting Weeding Harvesting Marketing Culture norms  Beans Planting Weeding Harvesting Marketing Culture norms Banana Harvesting Marketing Root crops (Yams, Cassava, Sweet potatoes, Arrow roots) Planting Weeding Harvesting Marketing Culture norms Men Livestock (Dairy, Beef) Grazing Marketing  Cash crops Coffee Land preparation Planting Purchase of inputs Spraying Pruning Attending meetings and trainings Men –labor intensive, skills and experience required, value of the crop Tea Land preparation Purchase of inputs Training of the crop Pruning Macadamia  Enterprise Men Women Youth Reasons why Coffee Land preparation Planting Purchase of inputs Spraying Weeding Pruning Selecting &amp;Grading Attending meetings and trainings Manuring Weeding Pruning Picking Selecting &amp;Grading Land preparation Picking Transporting Selecting &amp; Grading  Men –labour intensive ,skills and experience required, value of the crop  Women – less skill and labour ,culture ,  Youth –Level of income ,quick money ,less time required Tea Land preparation Purchase of inputs Training of the crop Pruning Picking Weeding Selecting and grading Planting Land preparation Picking Transporting Selecting and grading Pruning Planting Men –labour intensive ,skills and experience required, value of the crop  Women – less skill and labour ,culture ,  Youth –Level of income ,quick money ,less time required Muguka Land preparation Planting Purchase of inputs Training of the crop Spraying Picking Grading /sorting Irrigating Marketing Picking Weeding Irrigating Marketing Land preparation Picking Transporting Irrigating Marketing Men –labour intensive ,skills and experience required, value of the crop  Women – less skill and labour ,culture ,  Youth –Level of income ,quick money ,less time required Avocado Land preparation Planting Purchase of inputs Pruning Picking Weeding Sorting and grading Marketing Picking Pruning Transporting Sorting and grading Men –labour intensive ,skills and experience ,required, value of the crop ,risk involved  Women – less skill and labour ,culture ,  Youth –Level of income ,quick money ,less time required Macadamia Land preparation Purchase of inputs Planting Pruning Harvesting De-husking Pest and disease control Weeding Sorting and grading Harvesting Transporting Sorting and grading De-husking Men –labour intensive ,skills and experience required, value of the crop,risk involved  Women – less skill and labour ,culture ,  Youth –Level of income ,quick money ,less time required Dairy cow Purchase of animal Dairy unit construction Purchase of feeds and other inputs Milking Feeding Milk marketing Transportation Feeding Cleaning the unit Men –labour intensive ,skills and experience required, ownership  Women – less skill and labour ,culture ,  Youth –,quick money ,less time required Mangoes Land preparation Planting Purchase of inputs Pruning Picking Weeding Sorting and grading Marketing Value addition Picking Pruning Transporting Sorting and grading</t>
   </si>
   <si>
     <t>Knowledge gaps Tradition and culture norms Access to resources ie land, capital and machinery Social responsibilities</t>
@@ -175,16 +169,13 @@
     <t>Challenges Solutions Low literacy levels Group awareness and sensitization forums Poor purchasing power Informal financial services eg Table banking</t>
   </si>
   <si>
-    <t>a. land, b. Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services c. Access to training and knowledge/extension d. Access to information as market, weather e. Access to technology eg ICT, digital gadgets, internet, digital literacy Resource Gender ACCESS Land Men High Women Medium Youth Low Finance Men High Women Low (Informal services) Youth Low Training/Knowledge/Extension services Men High in formal trainings Medium Enterprise based attendance. Women Medium Enterprise based attendance Youth Low Information on market and weather Men High Women Medium Youth Medium Technology and digital gadgets Men Medium Women Medium Youth High</t>
-  </si>
-  <si>
-    <t>Value chain Market demand Competition landscape Value addition Profitability levels Comparison to male dominated enterprises Socio economic benefits Maize High Maize from rift valley which is cheaper Maize flour for the villagers Low Poor Food and nutrition security Beans High High (Beans from western Kenya) Polishing and packaging High Fair Food and nutrition security Bananas medium High (Bananas from Kisii, Meru, ) Banana Flour, Banana crisps, Banana wine Medium Fair Increased household income Root crops medium Low Crisps, Flour Low Poor Food and nutrition security Green grams High High from other countries Polishing and packaging High Fair Increased household income Sorghum High Low Milling, Malting, Medium Fair Increased household income</t>
-  </si>
-  <si>
-    <t>Men –labour intensive ,skills and experience required, value of the crop Women – less skill and labour ,culture , Youth –Level of income ,quick money ,less time required Goats Purchase of animal Unit construction Purchase of feeds and other inputs Milking Cleaning the unit Feeding Milk marketing Feeding Cleaning the unit Men –labour intensive ,skills and experience required, ownership Women – less skill and labour ,culture , Youth –,quick money ,less time required Apiary Purchase of hives Harvesting Cleaning of hives Marketing Value addition Marketing Value addition Marketing Value addition Men –labour intensive ,skills and experience required, ownership Women – less skill and labour ,culture , Youth –,quick money ,less time required Bananas Land preparation Sourcing for inputs Planting Harvesting Weeding Manuring Harvesting Marketing Value addition Transporting Marketing Value addition Men –labour intensive ,skills and experience required, value of the crop Women – less skill and labour ,culture , Youth –Level of income ,quick money ,less time required Maize Land preparation Purchase of inputs Planting Pest and disease control Harvesting Transporting Marketing Purchase of inputs Planting Weeding Pest and disease control Harvesting Marketing Land preparation Purchase of inputs Planting Pest and disease control Harvesting Transporting Marketing Men –labour intensive ,skills and experience required, value of the crop Women – less skill and labour ,culture , Youth –Level of income ,quick money ,less time required Green grams Land preparation Purchase of inputs Pest and disease control Transporting Marketing Planting Weeding Pest and disease control Harvesting Marketing Land preparation Purchase of inputs Planting Weeding Pest and disease control Harvesting Transporting Marketing Men –labour intensive ,skills and experience required, value of the crop Women – less skill and labour ,culture , Youth –Level of income ,quick money ,less time required Cowpeas Land preparation Purchase of inputs Pest and disease control Transporting Marketing Land preparation Purchase of inputs</t>
-  </si>
-  <si>
-    <t>No response provided</t>
+    <t>a. land, b. Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services c. Access to training and knowledge/extension d. Access to information as market, weather e. Access to technology eg ICT, digital gadgets, internet, digital literacy Resource Gender ACCESS Land Men High Women Medium Youth Low Finance Men High Women Low (Informal services) Youth Low  Training/Knowledge/Extension services Men High in formal trainings Medium Enterprise based attendance. Women Medium Enterprise based attendance Youth Low Information on market and weather Men High Women Medium Youth Medium Technology and digital gadgets Men Medium Women Medium Youth High</t>
+  </si>
+  <si>
+    <t>Value chain Market demand Competition landscape Value addition Profitability levels Comparison to male dominated enterprises Socio economic benefits Maize High Maize from rift valley which is cheaper Maize flour for the villagers Low Poor Food and nutrition security  Beans High High (Beans from western Kenya) Polishing and packaging High Fair Food and nutrition security  Bananas medium High (Bananas from Kisii, Meru, ) Banana Flour, Banana crisps, Banana wine Medium Fair Increased household income Root crops medium Low Crisps, Flour Low Poor Food and nutrition security  Green grams High High from other countries Polishing and packaging High Fair Increased household income Sorghum High Low Milling, Malting, Medium Fair Increased household income</t>
+  </si>
+  <si>
+    <t>Men –labour intensive ,skills and experience required, value of the crop  Women – less skill and labour ,culture ,  Youth –Level of income ,quick money ,less time required Goats Purchase of animal Unit construction Purchase of feeds and other inputs Milking Cleaning the unit Feeding Milk marketing Feeding Cleaning the unit Men –labour intensive ,skills and experience required, ownership  Women – less skill and labour ,culture ,  Youth –,quick money ,less time required Apiary Purchase of hives Harvesting Cleaning of hives Marketing Value addition Marketing Value addition Marketing Value addition Men –labour intensive ,skills and experience required, ownership  Women – less skill and labour ,culture ,  Youth –,quick money ,less time required Bananas Land preparation Sourcing for inputs Planting Harvesting Weeding Manuring Harvesting Marketing Value addition Transporting Marketing Value addition Men –labour intensive ,skills and experience required, value of the crop  Women – less skill and labour ,culture ,  Youth –Level of income ,quick money ,less time required Maize Land preparation Purchase of inputs Planting Pest and disease control Harvesting Transporting Marketing Purchase of inputs Planting Weeding Pest and disease control Harvesting Marketing Land preparation Purchase of inputs Planting Pest and disease control Harvesting Transporting Marketing Men –labour intensive ,skills and experience required, value of the crop  Women – less skill and labour ,culture ,  Youth –Level of income ,quick money ,less time required Green grams Land preparation Purchase of inputs Pest and disease control Transporting Marketing Planting Weeding Pest and disease control Harvesting Marketing Land preparation Purchase of inputs Planting Weeding Pest and disease control Harvesting Transporting Marketing Men –labour intensive ,skills and experience required, value of the crop  Women – less skill and labour ,culture ,  Youth –Level of income ,quick money ,less time required Cowpeas Land preparation Purchase of inputs Pest and disease control Transporting Marketing Land preparation Purchase of inputs Panting Weeding Pest and disease control Harvesting Transporting Marketing Land preparation Purchase of inputs Panting Weeding Pest and disease control Harvesting Transporting Marketing Men –labour intensive ,skills and experience required, value of the crop  Women – less skill and labour ,culture ,  Youth –Level of income ,quick money ,less time required Beans Land preparation Purchase of inputs Pest and disease control Transporting Marketing Land preparation Purchase of inputs Panting Weeding Pest and disease control Harvesting Transporting Marketing Land preparation Purchase of inputs Panting Weeding Pest and disease control Harvesting Transporting Marketing Men –labour intensive ,skills and experience required, value of the crop  Women – less skill and labour ,culture ,  Youth –Level of income ,quick money ,less time required Poultry Construction of the unit Purchase of feeds Pest and disease control Incubation /Brooding Feeding Cleaning the unit Pest and disease control Marketing Incubation /Brooding Feeding Cleaning the unit Pest and disease control Marketing Men –labour intensive ,skills and experience required, ownership  Women – less skill and labour ,culture ,  Youth –,quick money ,less time required Rabbits Construction of the hutch Purchase of rabbit Purchase of feeds Feeding</t>
   </si>
   <si>
     <t>Increase areas under production Increase yield per unit area Contract marketing (Growing maize to sell to an off taker) Improving soil health</t>
@@ -202,7 +193,7 @@
     <t>Promotion and upscaling of gender sensitive programs in the county policies and frameworks County safety nets for vulnerable groups ie men and youth</t>
   </si>
   <si>
-    <t>Enablers Public participation policy County programs and projects Development projects INGOs and Local NGOs Poor implementation of 2/3 Gender rule</t>
+    <t>Enablers Public participation policy County programs and projects Development projects INGOs and Local NGOs  Poor implementation of 2/3 Gender rule</t>
   </si>
   <si>
     <t>Training and capacity building Financial safety nets for women Formal access to financial services Gender specific policies</t>
@@ -563,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,414 +570,309 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
